--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,41 +572,20 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>China Sectoral Policy, Intern</t>
+          <t>Manager, Urban Planning Accelerator</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Beijing (Hybrid)</t>
+          <t>Climate Solutions and Networks - Colombia, Indonesia, Malaysia &amp; Philippines (Hybrid)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D7" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/690", "China Sectoral Policy, Intern")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Urban Planning Accelerator</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Climate Solutions and Networks - Colombia, Indonesia, Malaysia &amp; Philippines (Hybrid)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/691", "Manager, Urban Planning Accelerator")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,41 +551,20 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Senior Manager, Transport Finance</t>
+          <t>Manager, Urban Planning Accelerator</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Brazil &amp; South Africa, . (Hybrid)</t>
+          <t>Climate Solutions and Networks - Colombia, Indonesia, Malaysia &amp; Philippines (Hybrid)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Safety, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D6" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/689", "Senior Manager, Transport Finance")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Urban Planning Accelerator</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Climate Solutions and Networks - Colombia, Indonesia, Malaysia &amp; Philippines (Hybrid)</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/691", "Manager, Urban Planning Accelerator")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Climate Resilience Advisor, Jakarta</t>
+          <t>Consultant - Climate Resilience Advisor, Freetown</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Jakarta</t>
+          <t>Regions and Mayoral Engagement - Freetown</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -502,70 +502,7 @@
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/686", "Climate Resilience Advisor, Jakarta")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Climate Resilience Advisor, Quezon City</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Regions and Mayoral Engagement - Quezon City</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/687", "Climate Resilience Advisor, Quezon City")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Consultant - Climate Resilience Advisor, Freetown</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Regions and Mayoral Engagement - Freetown</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/688", "Consultant - Climate Resilience Advisor, Freetown")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Urban Planning Accelerator</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Climate Solutions and Networks - Colombia, Indonesia, Malaysia &amp; Philippines (Hybrid)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/691", "Manager, Urban Planning Accelerator")</f>
         <v/>
       </c>
     </row>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,27 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Inclusive Climate Action, Senior Manager, Africa</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Inclusion and Global Leadership - Kenya, C40 (Remote)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/692", "Inclusive Climate Action, Senior Manager, Africa")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,33 +467,33 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Priority Initiatives and Events Manager, C40 and GCOM</t>
+          <t>Consultant - Climate Resilience Advisor, Freetown</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Governance &amp; Executive Engagement - Johannesburg, London, Rio de Janeiro &amp; United States (Hybrid)</t>
+          <t>Regions and Mayoral Engagement - Freetown</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/684", "Priority Initiatives and Events Manager, C40 and GCOM")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/688", "Consultant - Climate Resilience Advisor, Freetown")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Consultant - Climate Resilience Advisor, Freetown</t>
+          <t>Inclusive Climate Action, Senior Manager, Africa</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Freetown</t>
+          <t>Inclusion and Global Leadership - Kenya, C40 (Remote)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -502,27 +502,6 @@
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/688", "Consultant - Climate Resilience Advisor, Freetown")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Inclusive Climate Action, Senior Manager, Africa</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Inclusion and Global Leadership - Kenya, C40 (Remote)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/692", "Inclusive Climate Action, Senior Manager, Africa")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,48 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Manager, Zero Emission Freight (Brazil)</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Regions and Mayoral Engagement - Brazil (Hybrid)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/694", "Manager, Zero Emission Freight (Brazil)")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Programme Officer, Zero Emission Freight LATAM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Regions and Mayoral Engagement - Brazil, Colombia (Hybrid)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/695", "Programme Officer, Zero Emission Freight LATAM")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,83 +467,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Consultant - Climate Resilience Advisor, Freetown</t>
+          <t>Manager, Zero Emission Freight (Brazil)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Freetown</t>
+          <t>Regions and Mayoral Engagement - Brazil (Hybrid)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/688", "Consultant - Climate Resilience Advisor, Freetown")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/694", "Manager, Zero Emission Freight (Brazil)")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Inclusive Climate Action, Senior Manager, Africa</t>
+          <t>Programme Officer, Zero Emission Freight LATAM</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Inclusion and Global Leadership - Kenya, C40 (Remote)</t>
+          <t>Regions and Mayoral Engagement - Brazil, Colombia (Hybrid)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/692", "Inclusive Climate Action, Senior Manager, Africa")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Zero Emission Freight (Brazil)</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Regions and Mayoral Engagement - Brazil (Hybrid)</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/694", "Manager, Zero Emission Freight (Brazil)")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Programme Officer, Zero Emission Freight LATAM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Regions and Mayoral Engagement - Brazil, Colombia (Hybrid)</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/695", "Programme Officer, Zero Emission Freight LATAM")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,42 +467,84 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Manager, Zero Emission Freight (Brazil)</t>
+          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Brazil (Hybrid)</t>
+          <t>Climate Finance, Knowledge and Partnerships - Colombia, Denmark, Kenya, South Africa &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/694", "Manager, Zero Emission Freight (Brazil)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Programme Officer, Zero Emission Freight LATAM</t>
+          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Regions and Mayoral Engagement - Brazil, Colombia (Hybrid)</t>
+          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Climate Finance, Knowledge and Partnerships - Colombia, Denmark, Kenya, South Africa &amp; UK (Hybrid)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="D4" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Operations Manager, GCoM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Belgium, UK</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/695", "Programme Officer, Zero Emission Freight LATAM")</f>
+      <c r="D5" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
         <v/>
       </c>
     </row>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Colombia, Denmark, Kenya, South Africa &amp; UK (Hybrid)</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Colombia, Denmark, Kenya, South Africa &amp; UK (Hybrid)</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,6 +548,69 @@
         <v/>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>IT Helpdesk Technician (Paternity Cover)</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Corporate Services - Copenhagen</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Head of Regional Coordination, GCoM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Manager, Adaptation Finance</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Climate Finance, Knowledge and Partnerships - South Africa</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,96 +467,96 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Priority Initiatives and Events Manager, C40 and GCOM</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Governance &amp; Executive Engagement - UK, USA</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/684", "Priority Initiatives and Events Manager, C40 and GCOM")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
+          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Operations Manager, GCoM</t>
+          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - Belgium, UK</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
+          <t>Operations Manager, GCoM</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Corporate Services - Copenhagen</t>
+          <t>Global Covenant of Mayors - Belgium, UK</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="D6" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>Head of Regional Coordination, GCoM</t>
+          <t>IT Helpdesk Technician (Paternity Cover)</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
+          <t>Corporate Services - Copenhagen</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -586,27 +586,48 @@
         </is>
       </c>
       <c r="D7" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
+          <t>Head of Regional Coordination, GCoM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D8" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
           <t>Manager, Adaptation Finance</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Climate Finance, Knowledge and Partnerships - South Africa</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>Climate</t>
         </is>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -619,7 +619,7 @@
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - South Africa</t>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,96 +467,96 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Priority Initiatives and Events Manager, C40 and GCOM</t>
+          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Governance &amp; Executive Engagement - UK, USA</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/684", "Priority Initiatives and Events Manager, C40 and GCOM")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
+          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
+          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D4" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Operations Manager, GCoM</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Global Covenant of Mayors - Belgium, UK</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D5" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>Operations Manager, GCoM</t>
+          <t>IT Helpdesk Technician (Paternity Cover)</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - Belgium, UK</t>
+          <t>Corporate Services - Copenhagen</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -565,19 +565,19 @@
         </is>
       </c>
       <c r="D6" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
+          <t>Head of Regional Coordination, GCoM</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Corporate Services - Copenhagen</t>
+          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
@@ -586,48 +586,27 @@
         </is>
       </c>
       <c r="D7" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Head of Regional Coordination, GCoM</t>
+          <t>Manager, Adaptation Finance</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D8" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Adaptation Finance</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D9" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,54 +467,54 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>IT Helpdesk Technician (Paternity Cover)</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Corporate Services - Copenhagen</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
+          <t>Head of Regional Coordination, GCoM</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
+          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Manager, Adaptation Finance</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -523,90 +523,6 @@
         </is>
       </c>
       <c r="D4" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Operations Manager, GCoM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Belgium, UK</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D5" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>Corporate Services - Copenhagen</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D6" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Head of Regional Coordination, GCoM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D7" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Adaptation Finance</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D8" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,62 +467,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
+          <t>Manager, Adaptation Finance</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Corporate Services - Copenhagen</t>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Head of Regional Coordination, GCoM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Manager, Adaptation Finance</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="D4" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,27 @@
         <v/>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Media and Communications Senior Manager, GCoM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Brazil, South Africa</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/705", "Media and Communications Senior Manager, GCoM")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,41 +467,20 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Manager, Adaptation Finance</t>
+          <t>Media and Communications Senior Manager, GCoM</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
+          <t>Global Covenant of Mayors - Brazil, South Africa</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" s="2">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Media and Communications Senior Manager, GCoM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brazil, South Africa</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="D3" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/705", "Media and Communications Senior Manager, GCoM")</f>
         <v/>
       </c>

--- a/scraper/output/c40_jobs.xlsx
+++ b/scraper/output/c40_jobs.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,20 +467,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>Senior Manager, Data System Development</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Business Planning, Measurement and Innovation - Brazil, Colombia, Denmark, US, UK</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="D2" s="2">
+        <f>HYPERLINK("https://c40.bamboohr.com/careers/704", "Senior Manager, Data System Development")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>Media and Communications Senior Manager, GCoM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Global Covenant of Mayors - Brazil, South Africa</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="2">
         <f>HYPERLINK("https://c40.bamboohr.com/careers/705", "Media and Communications Senior Manager, GCoM")</f>
         <v/>
       </c>
